--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -1,102 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>TimecodeIN</t>
-  </si>
-  <si>
-    <t>TimecodeOUT</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>00:00:00,000</t>
-  </si>
-  <si>
-    <t>00:00:04,840</t>
-  </si>
-  <si>
-    <t>00:00:10,880</t>
-  </si>
-  <si>
-    <t>00:00:14,560</t>
-  </si>
-  <si>
-    <t>00:00:19,280</t>
-  </si>
-  <si>
-    <t>00:00:24,720</t>
-  </si>
-  <si>
-    <t>00:00:30,440</t>
-  </si>
-  <si>
-    <t>00:00:37,040</t>
-  </si>
-  <si>
-    <t>Whether you are a seasoned professional or a fresh graduate looking to begin</t>
-  </si>
-  <si>
-    <t>your career in the industry, an IT certification can open numerous doors for you.</t>
-  </si>
-  <si>
-    <t>It can give you the technical knowledge you need to advance your</t>
-  </si>
-  <si>
-    <t>professional journey and receive lucrative compensation packages. A</t>
-  </si>
-  <si>
-    <t>certification proves you have the right skills and experience in a particular</t>
-  </si>
-  <si>
-    <t>field. So you are watching Simpli Learn and today we bring you the list of top</t>
-  </si>
-  <si>
-    <t>10 certifications for 2023 that will boost your career.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,126 +420,2502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TimecodeIN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TimecodeOUT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>00:00:00,000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00:00:02,000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>I love colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>00:00:02,000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00:00:04,000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>All colors are beautiful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>00:00:04,000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00:00:06,000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>I love yellow, yellow, yellow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>00:00:06,000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00:00:08,000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>I love pink, pink, pink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00:00:08,000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>00:00:10,000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>I love blue, blue, blue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>00:00:10,000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>00:00:12,000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>One, two, three, four colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>00:00:12,000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>00:00:14,000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>I love green, green, green.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>00:00:14,000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>00:00:16,000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>I love orange, orange, orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>00:00:16,000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00:00:18,000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>00:00:18,000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>00:00:20,000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>00:00:20,000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>00:00:22,000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>00:00:22,000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>00:00:24,000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>00:00:24,000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>00:00:26,000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>00:00:26,000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>00:00:28,000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>00:00:28,000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>00:00:29,000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>00:00:29,000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>00:00:30,000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>00:00:30,000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>00:00:31,000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Orange!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>00:00:31,000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>00:00:32,000</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>00:00:32,000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>00:00:33,000</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>00:00:33,000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>00:00:34,000</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>00:00:34,000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>00:00:35,000</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>00:00:35,000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>00:00:36,000</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>00:00:36,000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>00:00:37,000</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>00:00:37,000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>00:00:38,000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>00:00:38,000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>00:00:39,000</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>00:00:39,000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>00:00:40,000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>00:00:40,000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>00:00:41,000</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>00:00:41,000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>00:00:42,000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>00:00:42,000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>00:00:43,000</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>00:00:43,000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>00:00:44,000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>00:00:44,000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>00:00:45,000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>00:00:45,000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>00:00:46,000</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00:00:46,000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>00:00:47,000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>00:00:47,000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>00:00:48,000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>00:00:48,000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>00:00:49,000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>00:00:49,000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>00:00:50,000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Both hands.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>00:00:50,000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>00:00:51,000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>00:00:51,000</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>00:00:52,000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>00:00:52,000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>00:00:53,000</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>00:00:53,000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>00:00:54,000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>00:00:54,000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>00:00:55,000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>00:00:55,000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>00:00:56,000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>00:00:56,000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>00:00:57,000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>00:00:57,000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>00:00:58,000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>00:00:58,000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>00:00:59,000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>00:00:59,000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>00:01:00,000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>00:01:00,000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>00:01:01,000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00:01:01,000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>00:01:02,000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>00:01:02,000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>00:01:03,000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>00:01:03,000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>00:01:04,000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>00:01:04,000</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>00:01:05,000</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>00:01:05,000</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>00:01:06,000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Orange!</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>00:01:06,000</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>00:01:07,000</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>00:01:07,000</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>00:01:08,000</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>00:01:08,000</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>00:01:10,000</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>00:01:10,000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>00:01:11,000</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>All orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>00:01:11,000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>00:01:12,000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Orange!</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>00:01:12,000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>00:01:13,000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Orange!</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>00:01:13,000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>00:01:14,000</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>00:01:14,000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>00:01:15,000</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>00:01:15,000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>00:01:16,000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>00:01:16,000</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>00:01:17,000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>00:01:17,000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>00:01:18,000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>00:01:18,000</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>00:01:19,000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Orange!</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>00:01:19,000</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>00:01:20,000</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Orange!</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>00:01:20,000</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>00:01:21,000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>00:01:21,000</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>00:01:22,000</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>00:01:22,000</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>00:01:23,000</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Orange!</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>00:01:23,000</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>00:01:24,840</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>00:01:24,840</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>00:01:26,000</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Orange!</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>00:01:26,000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>00:01:27,000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Pink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>00:01:27,000</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>00:01:28,000</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Pink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>00:01:28,000</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>00:01:29,000</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Pink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>00:01:29,000</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>00:01:30,000</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>I love blue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>00:01:30,000</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>00:01:31,000</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Blue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>00:01:31,000</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>00:01:32,000</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Blue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>00:01:32,000</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>00:01:35,000</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>One, two, three, four colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>00:01:35,000</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>00:01:37,000</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>I love green.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>00:01:37,000</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>00:01:38,000</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Green.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>00:01:38,000</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>00:01:39,000</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Green.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>00:01:39,000</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>00:01:41,000</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>I love orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>00:01:41,000</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>00:01:42,000</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>00:01:42,000</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>00:01:43,000</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>00:01:43,000</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>00:01:44,000</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>00:01:44,000</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>00:01:45,000</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>We love colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>00:01:45,000</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>00:01:46,000</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>00:01:46,000</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>00:01:49,000</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>All colors are beautiful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>00:01:49,000</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>00:01:51,000</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Green.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>00:01:51,000</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>00:01:52,000</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Green.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>00:01:52,000</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>00:01:54,000</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>I love this color.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>00:01:54,000</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>00:01:57,000</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Isn't it beautiful?</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>00:01:57,000</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>00:01:58,000</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Turtle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>00:01:58,000</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>00:01:59,000</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Seaweed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>00:01:59,000</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>00:02:00,000</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Croc Croc Croc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>00:02:00,000</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>00:02:01,000</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Frog.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>00:02:01,000</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>00:02:04,000</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>All my favorite color.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>00:02:04,000</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>00:02:05,000</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>00:02:05,000</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>00:02:06,000</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>00:02:06,000</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>00:02:08,000</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>We love this color.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>00:02:08,000</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>00:02:12,000</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Here's a gift beautiful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>00:02:12,000</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>00:02:13,000</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Orange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>00:02:13,000</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>00:02:14,000</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Carrot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>00:02:14,000</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>00:02:15,000</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Pumpkin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>00:02:15,000</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>00:02:16,000</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Basketball.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>00:02:16,000</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>00:02:19,000</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>All my favorite color.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>00:02:19,000</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>00:02:23,000</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>We all have different colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>00:02:23,000</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>00:02:26,000</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>We all have our own colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>00:02:26,000</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>00:02:28,000</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Colors are beautiful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>00:02:28,000</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>00:02:31,000</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>We are all special.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>00:02:31,000</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>00:02:38,000</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>La la la la la la la.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>00:02:38,000</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>00:02:41,000</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>La la la la la la.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>00:02:41,000</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>00:02:44,000</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>We all have colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>00:02:44,000</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>00:02:45,000</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>00:02:45,000</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>00:02:48,000</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>One, two, three, four colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>00:02:48,000</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>00:02:50,000</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>La la la la la.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>00:02:50,000</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>00:02:52,000</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>La la la la.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>00:02:52,000</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>00:02:55,000</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>La la la la la.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>00:02:55,000</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>00:02:58,000</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>We all have colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>00:02:58,000</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>00:02:59,000</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Colors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>00:02:59,000</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>00:03:02,000</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>All colors are beautiful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>00:03:02,000</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>00:03:04,000</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>We are all beautiful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>00:03:04,000</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>00:03:07,000</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>We are all special.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>00:03:07,000</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>00:03:10,000</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Yeah!</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:00:00,000</t>
+          <t>00:00:16,124</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:02,000</t>
+          <t>00:00:19,666</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>I love colors.</t>
+          <t>[SPEAKER_01]: I  love  blue,</t>
         </is>
       </c>
     </row>
@@ -481,17 +481,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:00:02,000</t>
+          <t>00:00:16,124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:04,000</t>
+          <t>00:00:19,666</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>All colors are beautiful.</t>
+          <t>[SPEAKER_01]: blue,  blue.  One,</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:00:04,000</t>
+          <t>00:00:19,666</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:06,000</t>
+          <t>00:00:23,389</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>I love yellow, yellow, yellow.</t>
+          <t>[SPEAKER_01]: two,  three,  four</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:00:06,000</t>
+          <t>00:00:19,666</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:00:08,000</t>
+          <t>00:00:23,389</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>I love pink, pink, pink.</t>
+          <t>[SPEAKER_01]: colors.  I  love</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:00:08,000</t>
+          <t>00:00:23,389</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:00:10,000</t>
+          <t>00:00:27,051</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>I love blue, blue, blue.</t>
+          <t>[SPEAKER_01]: green,  green,  green.</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00:00:10,000</t>
+          <t>00:00:27,051</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:00:12,000</t>
+          <t>00:00:30,393</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>One, two, three, four colors.</t>
+          <t>[SPEAKER_00]: I  love  orange,</t>
         </is>
       </c>
     </row>
@@ -581,17 +581,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00:00:12,000</t>
+          <t>00:00:27,051</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:00:14,000</t>
+          <t>00:00:30,393</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>I love green, green, green.</t>
+          <t>[SPEAKER_00]: orange,  orange.  We</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00:00:14,000</t>
+          <t>00:00:30,393</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:00:16,000</t>
+          <t>00:00:34,236</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>I love orange, orange, orange.</t>
+          <t>[SPEAKER_00]: love  colors,  colors.</t>
         </is>
       </c>
     </row>
@@ -621,17 +621,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>00:00:16,000</t>
+          <t>00:00:34,236</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:00:18,000</t>
+          <t>00:00:37,738</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: All  colors  are</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00:00:18,000</t>
+          <t>00:00:34,236</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:00:20,000</t>
+          <t>00:00:37,738</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: beautiful.  Yellow,  yellow,</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00:00:20,000</t>
+          <t>00:00:37,738</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:00:22,000</t>
+          <t>00:00:41,461</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: I  love  this</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00:00:22,000</t>
+          <t>00:00:37,738</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:24,000</t>
+          <t>00:00:41,461</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: color.  Isn't  it</t>
         </is>
       </c>
     </row>
@@ -701,17 +701,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00:00:24,000</t>
+          <t>00:00:41,461</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:26,000</t>
+          <t>00:00:43,242</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: beautiful?  Lemon,  pineapple,</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00:00:26,000</t>
+          <t>00:00:44,982</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:28,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: twinkle  twinkle  little</t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00:00:28,000</t>
+          <t>00:00:44,982</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:29,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: star  Oh,  my</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00:00:29,000</t>
+          <t>00:00:44,982</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:00:30,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: favorite  color  Pink</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>00:00:30,000</t>
+          <t>00:00:44,982</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>00:00:31,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Orange!</t>
+          <t>[SPEAKER_00]: and  blue,  we</t>
         </is>
       </c>
     </row>
@@ -801,17 +801,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>00:00:31,000</t>
+          <t>00:00:44,982</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>00:00:32,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: love  these  colors</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>00:00:32,000</t>
+          <t>00:00:44,982</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>00:00:33,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: Aren't  they  beautiful?</t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>00:00:33,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>00:00:34,000</t>
+          <t>00:01:09,200</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: Flamingo,  cotton  candy,</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>00:00:34,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>00:00:35,000</t>
+          <t>00:01:09,200</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: blueberries,  whale  Oh,</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>00:00:35,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>00:00:36,000</t>
+          <t>00:01:09,200</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: our  favorite  colors</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>00:00:36,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>00:00:37,000</t>
+          <t>00:01:09,200</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: We  all  have</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>00:00:37,000</t>
+          <t>00:00:59,072</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>00:00:38,000</t>
+          <t>00:01:09,200</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: different  colors  We</t>
         </is>
       </c>
     </row>
@@ -941,17 +941,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>00:00:38,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>00:00:39,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: all  have  our</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>00:00:39,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>00:00:40,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: own  colors  Colors</t>
         </is>
       </c>
     </row>
@@ -981,17 +981,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>00:00:40,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>00:00:41,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: are  beautiful  We</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>00:00:41,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>00:00:42,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: are  all  special</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>00:00:42,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>00:00:43,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: I  love  yellow,</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>00:00:43,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>00:00:44,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: yellow  I  love</t>
         </is>
       </c>
     </row>
@@ -1061,17 +1061,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>00:00:44,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>00:00:45,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: pink,  pink,  pink</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>00:00:45,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>00:00:46,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: I  love  blue,</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>00:00:46,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>00:00:47,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: blue,  blue  One,</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>00:00:47,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>00:00:48,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: two,  three,  four</t>
         </is>
       </c>
     </row>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>00:00:48,000</t>
+          <t>00:01:10,390</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>00:00:49,000</t>
+          <t>00:01:25,613</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: colors</t>
         </is>
       </c>
     </row>
@@ -1161,17 +1161,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>00:00:49,000</t>
+          <t>00:01:36,124</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>00:00:50,000</t>
+          <t>00:01:38,306</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Both hands.</t>
+          <t>[SPEAKER_01]: I  love  green,</t>
         </is>
       </c>
     </row>
@@ -1181,17 +1181,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>00:00:50,000</t>
+          <t>00:01:36,124</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>00:00:51,000</t>
+          <t>00:01:38,306</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_01]: green.  Green.  I</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>00:00:51,000</t>
+          <t>00:01:39,747</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>00:00:52,000</t>
+          <t>00:01:42,169</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: love  orange,  orange.</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>00:00:52,000</t>
+          <t>00:01:42,169</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>00:00:53,000</t>
+          <t>00:01:43,150</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: Orange.  We  love</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>00:00:53,000</t>
+          <t>00:01:43,150</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>00:00:54,000</t>
+          <t>00:01:46,972</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: colors,  colors.  All</t>
         </is>
       </c>
     </row>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>00:00:54,000</t>
+          <t>00:01:46,972</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>00:00:55,000</t>
+          <t>00:01:50,375</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: colors  are  beautiful.</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>00:00:55,000</t>
+          <t>00:01:50,375</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>00:00:56,000</t>
+          <t>00:01:52,256</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_01]: Green,  green.  I</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1301,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>00:00:56,000</t>
+          <t>00:01:52,256</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>00:00:57,000</t>
+          <t>00:01:54,258</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_01]: love  this  color.</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>00:00:57,000</t>
+          <t>00:01:54,258</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>00:00:58,000</t>
+          <t>00:01:57,680</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_01]: Isn't  it  beautiful?</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>00:00:58,000</t>
+          <t>00:01:57,680</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>00:00:59,000</t>
+          <t>00:02:01,523</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_01]: Turtle,  seaweed,  croak,</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>00:00:59,000</t>
+          <t>00:01:57,680</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>00:01:00,000</t>
+          <t>00:02:01,523</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_01]: croak,  frog.  Oh,</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>00:01:00,000</t>
+          <t>00:02:01,523</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>00:01:01,000</t>
+          <t>00:02:03,845</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_01]: my  favorite  color.</t>
         </is>
       </c>
     </row>
@@ -1401,17 +1401,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>00:01:01,000</t>
+          <t>00:02:05,136</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>00:01:02,000</t>
+          <t>00:02:08,677</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: Orange,  orange,  we</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1421,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>00:01:02,000</t>
+          <t>00:02:05,136</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>00:01:03,000</t>
+          <t>00:02:08,677</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: love  this  color.</t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>00:01:03,000</t>
+          <t>00:02:08,677</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>00:01:04,000</t>
+          <t>00:02:12,378</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: Isn't  it  beautiful?</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>00:01:04,000</t>
+          <t>00:02:12,378</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>00:01:05,000</t>
+          <t>00:02:16,019</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: Orange,  carrot,  pumpkin,</t>
         </is>
       </c>
     </row>
@@ -1481,17 +1481,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>00:01:05,000</t>
+          <t>00:02:12,378</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>00:01:06,000</t>
+          <t>00:02:16,019</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Orange!</t>
+          <t>[SPEAKER_00]: and  basketball.  Oh,</t>
         </is>
       </c>
     </row>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>00:01:06,000</t>
+          <t>00:02:16,019</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>00:01:07,000</t>
+          <t>00:02:19,480</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: my  favorite  color.</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1521,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>00:01:07,000</t>
+          <t>00:02:19,480</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>00:01:08,000</t>
+          <t>00:02:23,101</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: We  all  have</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>00:01:08,000</t>
+          <t>00:02:19,480</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>00:01:10,000</t>
+          <t>00:02:23,101</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: different  colors.  We</t>
         </is>
       </c>
     </row>
@@ -1561,17 +1561,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>00:01:10,000</t>
+          <t>00:02:23,101</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>00:01:11,000</t>
+          <t>00:02:25,662</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>All orange.</t>
+          <t>[SPEAKER_00]: all  have  our</t>
         </is>
       </c>
     </row>
@@ -1581,17 +1581,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>00:01:11,000</t>
+          <t>00:02:23,101</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>00:01:12,000</t>
+          <t>00:02:25,662</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Orange!</t>
+          <t>[SPEAKER_00]: own  colors.  Colors</t>
         </is>
       </c>
     </row>
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>00:01:12,000</t>
+          <t>00:02:25,662</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>00:01:13,000</t>
+          <t>00:02:28,343</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Orange!</t>
+          <t>[SPEAKER_00]: are  beautiful.  We</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1621,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>00:01:13,000</t>
+          <t>00:02:28,343</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>00:01:14,000</t>
+          <t>00:02:30,203</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: are  all  special.</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>00:01:14,000</t>
+          <t>00:02:34,059</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>00:01:15,000</t>
+          <t>00:02:48,607</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: La la  la la  la la</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1661,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>00:01:15,000</t>
+          <t>00:02:34,059</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>00:01:16,000</t>
+          <t>00:02:48,607</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: La la  la la  la la</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>00:01:16,000</t>
+          <t>00:02:34,059</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>00:01:17,000</t>
+          <t>00:02:48,607</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: We  love  colors,</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>00:01:17,000</t>
+          <t>00:02:34,059</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>00:01:18,000</t>
+          <t>00:02:48,607</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: colors  One,  two,</t>
         </is>
       </c>
     </row>
@@ -1721,17 +1721,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>00:01:18,000</t>
+          <t>00:02:34,059</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>00:01:19,000</t>
+          <t>00:02:48,607</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Orange!</t>
+          <t>[SPEAKER_00]: three,  four,  colors!</t>
         </is>
       </c>
     </row>
@@ -1741,17 +1741,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>00:01:19,000</t>
+          <t>00:02:48,607</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>00:01:20,000</t>
+          <t>00:02:58,413</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Orange!</t>
+          <t>[SPEAKER_00]: La la  la la  la la</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>00:01:20,000</t>
+          <t>00:02:48,607</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>00:01:21,000</t>
+          <t>00:02:58,413</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: La la  la la  la la</t>
         </is>
       </c>
     </row>
@@ -1781,17 +1781,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>00:01:21,000</t>
+          <t>00:02:48,607</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>00:01:22,000</t>
+          <t>00:02:58,413</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Orange.</t>
+          <t>[SPEAKER_00]: We  love  colors,</t>
         </is>
       </c>
     </row>
@@ -1801,17 +1801,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>00:01:22,000</t>
+          <t>00:02:48,607</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>00:01:23,000</t>
+          <t>00:02:58,413</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Orange!</t>
+          <t>[SPEAKER_00]: colors  All  colors</t>
         </is>
       </c>
     </row>
@@ -1821,17 +1821,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>00:01:23,000</t>
+          <t>00:02:59,700</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>00:01:24,840</t>
+          <t>00:03:10,829</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>[SPEAKER_00]: are  beautiful  We</t>
         </is>
       </c>
     </row>
@@ -1841,17 +1841,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>00:01:24,840</t>
+          <t>00:02:59,700</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>00:01:26,000</t>
+          <t>00:03:10,829</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Orange!</t>
+          <t>[SPEAKER_00]: are  all  beautiful</t>
         </is>
       </c>
     </row>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>00:01:26,000</t>
+          <t>00:02:59,700</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>00:01:27,000</t>
+          <t>00:03:10,829</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Pink.</t>
+          <t>[SPEAKER_00]: We  are  all</t>
         </is>
       </c>
     </row>
@@ -1881,17 +1881,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>00:01:27,000</t>
+          <t>00:02:59,700</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>00:01:28,000</t>
+          <t>00:03:10,829</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Pink.</t>
+          <t>[SPEAKER_00]: special</t>
         </is>
       </c>
     </row>
@@ -1901,1017 +1901,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>00:01:28,000</t>
+          <t>00:02:59,700</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>00:01:29,000</t>
+          <t>00:03:10,829</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Pink.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>00:01:29,000</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>00:01:30,000</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>I love blue.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>00:01:30,000</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>00:01:31,000</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Blue.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>00:01:31,000</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>00:01:32,000</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Blue.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>00:01:32,000</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>00:01:35,000</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>One, two, three, four colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>00:01:35,000</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>00:01:37,000</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>I love green.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>00:01:37,000</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>00:01:38,000</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Green.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>00:01:38,000</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>00:01:39,000</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Green.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>00:01:39,000</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>00:01:41,000</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>I love orange.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>00:01:41,000</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>00:01:42,000</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Orange.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>00:01:42,000</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>00:01:43,000</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Orange.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>00:01:43,000</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>00:01:44,000</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Orange.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>00:01:44,000</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>00:01:45,000</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>We love colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>00:01:45,000</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>00:01:46,000</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>00:01:46,000</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>00:01:49,000</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>All colors are beautiful.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>00:01:49,000</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>00:01:51,000</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Green.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>00:01:51,000</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>00:01:52,000</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Green.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>00:01:52,000</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>00:01:54,000</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>I love this color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>00:01:54,000</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>00:01:57,000</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Isn't it beautiful?</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>00:01:57,000</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>00:01:58,000</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Turtle.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>00:01:58,000</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>00:01:59,000</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Seaweed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>00:01:59,000</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>00:02:00,000</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Croc Croc Croc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>00:02:00,000</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>00:02:01,000</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Frog.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>00:02:01,000</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>00:02:04,000</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>All my favorite color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>00:02:04,000</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>00:02:05,000</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Orange.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>00:02:05,000</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>00:02:06,000</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Orange.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>00:02:06,000</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>00:02:08,000</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>We love this color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>00:02:08,000</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>00:02:12,000</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Here's a gift beautiful.</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>00:02:12,000</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>00:02:13,000</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Orange.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>00:02:13,000</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>00:02:14,000</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Carrot.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>00:02:14,000</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>00:02:15,000</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Pumpkin.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>00:02:15,000</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>00:02:16,000</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Basketball.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>00:02:16,000</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>00:02:19,000</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>All my favorite color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>00:02:19,000</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>00:02:23,000</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>We all have different colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>00:02:23,000</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>00:02:26,000</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>We all have our own colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>00:02:26,000</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>00:02:28,000</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Colors are beautiful.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>00:02:28,000</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>00:02:31,000</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>We are all special.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>00:02:31,000</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>00:02:38,000</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>La la la la la la la.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>00:02:38,000</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>00:02:41,000</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>La la la la la la.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>00:02:41,000</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>00:02:44,000</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>We all have colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>00:02:44,000</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>00:02:45,000</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>00:02:45,000</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>00:02:48,000</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>One, two, three, four colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>00:02:48,000</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>00:02:50,000</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>La la la la la.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>00:02:50,000</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>00:02:52,000</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>La la la la.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>00:02:52,000</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>00:02:55,000</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>La la la la la.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>00:02:55,000</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>00:02:58,000</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>We all have colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>00:02:58,000</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>00:02:59,000</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Colors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>00:02:59,000</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>00:03:02,000</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>All colors are beautiful.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>00:03:02,000</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>00:03:04,000</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>We are all beautiful.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>00:03:04,000</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>00:03:07,000</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>We are all special.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>00:03:07,000</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>00:03:10,000</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Yeah!</t>
+          <t>[SPEAKER_00]: Yeah!</t>
         </is>
       </c>
     </row>
